--- a/biology/Histoire de la zoologie et de la botanique/Edward_Waller_Claypole/Edward_Waller_Claypole.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Waller_Claypole/Edward_Waller_Claypole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Waller Claypole (1er juin 1835 - 17 août 1901) est un géologue et paléobotaniste anglo-américain. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claypole est né en Angleterre [1] et fait ses études à l'Université de Londres, où il obtient les diplômes AB en 1862, SB en 1864 et Sc.D. en 1888. Il arrive en Amérique en 1872 et est professeur de sciences naturelles à Antioch College, à Yellow Springs, Ohio, de 1873 à 1881. Pendant deux ans, il est paléontologue au Pennsylvania Geological Survey. De 1883 à 1898, il est professeur de sciences naturelles au Buchtel College d'Akron. En raison de la santé défaillante de sa femme, il démissionne de ce poste et cherche un climat du sud-ouest. Au cours des trois dernières années de sa vie, il est professeur de géologie et de biologie à l'Institut polytechnique Throop à Pasadena Californie[2],[3]. En 1883, il est élu membre de la Société américaine de philosophie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claypole est né en Angleterre  et fait ses études à l'Université de Londres, où il obtient les diplômes AB en 1862, SB en 1864 et Sc.D. en 1888. Il arrive en Amérique en 1872 et est professeur de sciences naturelles à Antioch College, à Yellow Springs, Ohio, de 1873 à 1881. Pendant deux ans, il est paléontologue au Pennsylvania Geological Survey. De 1883 à 1898, il est professeur de sciences naturelles au Buchtel College d'Akron. En raison de la santé défaillante de sa femme, il démissionne de ce poste et cherche un climat du sud-ouest. Au cours des trois dernières années de sa vie, il est professeur de géologie et de biologie à l'Institut polytechnique Throop à Pasadena Californie,. En 1883, il est élu membre de la Société américaine de philosophie.
 </t>
         </is>
       </c>
